--- a/biology/Médecine/Breakthrough_Prize_in_Life_Sciences/Breakthrough_Prize_in_Life_Sciences.xlsx
+++ b/biology/Médecine/Breakthrough_Prize_in_Life_Sciences/Breakthrough_Prize_in_Life_Sciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Breakthrough Prize in Life Sciences ou BPLS, parfois traduit en « prix des avancées capitales dans les sciences de la vie »[1], est un prix de médecine remis depuis 2013. Il récompense des chercheurs dont les travaux ont permis d'accroître l'espérance de vie humaine. À l'instar du Breakthrough Prize, il a été fondé par Mark Zuckerberg et Priscilla Chan de la société Facebook, Sergey Brin fondateur de Google, et Iouri Milner et Anne Wojcicki fondateurs de 23andMe.
-La première année, onze lauréats furent récompensés mais à partir de l'année 2014, le prix n'est attribué qu'à six lauréats, recevant chacun 3 millions de dollars américains (ce qui en fait le prix scientifique le mieux doté avec le prix de physique fondamentale, devant le prix Nobel)[2].
+Le Breakthrough Prize in Life Sciences ou BPLS, parfois traduit en « prix des avancées capitales dans les sciences de la vie », est un prix de médecine remis depuis 2013. Il récompense des chercheurs dont les travaux ont permis d'accroître l'espérance de vie humaine. À l'instar du Breakthrough Prize, il a été fondé par Mark Zuckerberg et Priscilla Chan de la société Facebook, Sergey Brin fondateur de Google, et Iouri Milner et Anne Wojcicki fondateurs de 23andMe.
+La première année, onze lauréats furent récompensés mais à partir de l'année 2014, le prix n'est attribué qu'à six lauréats, recevant chacun 3 millions de dollars américains (ce qui en fait le prix scientifique le mieux doté avec le prix de physique fondamentale, devant le prix Nobel).
 </t>
         </is>
       </c>
@@ -513,17 +525,19 @@
           <t>Lauréats de 2013</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Onze lauréats ont été primés en 2013, chacun recevant un prix de 3 millions de dollars.
 Cornelia Bargmann (université Rockefeller) pour la génétique des circuits neuronaux et de leurs comportement ainsi que l'étude des protéines synaptiques.
 David Botstein (université de Princeton), pour les analyses de liaisons génétiques des maladies mendéliennes humaines en utilisant les polymorphismes de l'ADN.
-Lewis Cantley (Harvard Medical School, Weil Corner Medical College)[3], pour sa découverte de la PI-3 kinase et de son rôle dans le cancer.
+Lewis Cantley (Harvard Medical School, Weil Corner Medical College), pour sa découverte de la PI-3 kinase et de son rôle dans le cancer.
 Hans Clevers (Institut d'Hubrecht), pour la description du rôle de la voie de signalisation WNT dans les cellules souches et le cancer.
-Titia de Lange (université Rockefeller)[4], pour sa recherche sur les télomères et leur rôle dans la protection des chromosomes ainsi que leur implication dans certains cancers.
+Titia de Lange (université Rockefeller), pour sa recherche sur les télomères et leur rôle dans la protection des chromosomes ainsi que leur implication dans certains cancers.
 Napoleone Ferrara (université de Californie à San Diego), pour la découverte des mécanismes de l'angiogenèse qui a mené à des thérapies contre certains cancers et maladies de l'œil.
 Eric Lander (MIT), pour la découverte de principes généraux applicables à l'identification de gènes impliqués dans des maladies et leurs application à la médecine.
-Charles Sawyers (Howard Hughes Medical Institute, Memorial Sloan-Kettering Cancer Center)[5], pour l'identification de gènes impliqués dans le cancer.
+Charles Sawyers (Howard Hughes Medical Institute, Memorial Sloan-Kettering Cancer Center), pour l'identification de gènes impliqués dans le cancer.
 Robert Weinberg (MIT), pour la caractérisation de gènes du cancer.
 Shinya Yamanaka (université de Kyoto, J. David Gladstone Institutes, université de Californie à San Francisco), pour la génération des cellules iPS.
 Bert Vogelstein (Howard Hughes Medical Institute, université Johns-Hopkins), pour la génomique du cancer et des gènes suppresseurs de tumeurs.</t>
@@ -554,9 +568,11 @@
           <t>Lauréats de 2014 [6]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>James Allison (Centre de recherche sur le cancer M.D. Anderson), pour la découverte du blocage des checkpoints des lymphocytes T comme traitement contre le cancer[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>James Allison (Centre de recherche sur le cancer M.D. Anderson), pour la découverte du blocage des checkpoints des lymphocytes T comme traitement contre le cancer.
 Mahlon DeLong (université Emory), pour la description des circuits neuronaux défectueux dans la maladie de Parkinson.
 Michael N. Hall (université de Bâle), pour la découverte de la protéine Target of Rapamycin (TOR) et son rôle dans la régulation de la croissance cellulaire.
 Robert Langer (Massachusetts Institute of Technology), pour le développement de nouveaux systèmes d'administration de médicaments et de nouveaux biomatériaux.
@@ -589,7 +605,9 @@
           <t>Lauréats de 2015[8]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alim-Louis Benabid (université Joseph-Fourier), pour le développement de la technique de stimulation cérébrale profonde qui a révolutionné le traitement de la maladie de Parkinson.
 C. David Allis (université Rockefeller), pour la découverte des modifications covalentes des histones et leurs rôles essentiels dans la régulation de l'expression des gènes et de l'organisation de la chromatine.
@@ -622,7 +640,9 @@
           <t>Lauréats de 2016[9]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Edward S. Boyden, (Massachusetts Institute of Technology) et Karl Deisseroth, (université Stanford et Howard Hughes Medical Institute), pour le développement et la mise en œuvre de l'optogénétique qui permet de rendre des neurones sensibles à la lumière en combinant le génie génétique et l’optique.
 John Hardy (University College de Londres), pour la découverte des mutations de la protéine précurseur de l'amyloïde qui permet d'explorer de nouveaux traitements de la maladie d'Alzheimer.
@@ -655,7 +675,9 @@
           <t>Lauréats de 2017</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Stephen Elledge
 Harry Noller
@@ -689,7 +711,9 @@
           <t>Lauréats de 2018</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Joanne Chory
 Peter Walter
@@ -723,7 +747,9 @@
           <t>Lauréats de 2019</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>C. Frank Bennett
 Adrian R. Krainer (en)
@@ -757,7 +783,9 @@
           <t>Lauréats de 2020</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jeffrey M. Friedman
 Franz-Ulrich Hartl
@@ -791,7 +819,9 @@
           <t>Lauréats de 2021</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>David Baker (en)
 Catherine Dulac
@@ -824,7 +854,9 @@
           <t>Lauréats de 2022</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jeffery W. Kelly (en)
 Katalin Karikó et Drew Weissman
@@ -856,14 +888,16 @@
           <t>Lauréats de 2023</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Clifford Brangwynne (en),
 Anthony Hyman (en)
 Demis Hassabis
 John Jumper (en)
 Emmanuel Mignot (en)
-Masashi Yanagisawa (en)[10]</t>
+Masashi Yanagisawa (en)</t>
         </is>
       </c>
     </row>
@@ -891,7 +925,9 @@
           <t>Lauréats de 2024</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Carl June (en),
 Michel SadelainMichel Sadelain
@@ -900,7 +936,7 @@
 Fredrick Van Goor (de)
 Thomas Gasser (de)
 Ellen Sidransky (en)
-Andrew Singleton (en)[11]</t>
+Andrew Singleton (en)</t>
         </is>
       </c>
     </row>
